--- a/Kansas/WaterAllocation/KSwr_Allocation Schema Mapping to WaDE.xlsx
+++ b/Kansas/WaterAllocation/KSwr_Allocation Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Kansas\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D4533F-D87E-4E6F-A0C9-F93E2D62A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDEB11D-FF61-424D-859B-61B034EFACE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="1" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -2597,7 +2597,7 @@
     <t>Legal Processes</t>
   </si>
   <si>
-    <t>Use wr_id_x with 'https://www.swc.nd.gov/info_edu/map_data_resources/waterpermits/single.php?id='</t>
+    <t>Use wr_id_x with 'http://geohydro.kgs.ku.edu/geohydro/wimas/water_right_list_direct.cfm?wr_id='</t>
   </si>
 </sst>
 </file>
@@ -4111,8 +4111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6321,8 +6321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
